--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H2">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.1125382260581</v>
+        <v>79.66420866666668</v>
       </c>
       <c r="N2">
-        <v>58.1125382260581</v>
+        <v>238.992626</v>
       </c>
       <c r="O2">
-        <v>0.08651056168866815</v>
+        <v>0.1048332405251988</v>
       </c>
       <c r="P2">
-        <v>0.08651056168866815</v>
+        <v>0.1104048582881303</v>
       </c>
       <c r="Q2">
-        <v>28.76086231900818</v>
+        <v>44.51144717673223</v>
       </c>
       <c r="R2">
-        <v>28.76086231900818</v>
+        <v>400.6030245905901</v>
       </c>
       <c r="S2">
-        <v>0.08651056168866815</v>
+        <v>0.1048332405251988</v>
       </c>
       <c r="T2">
-        <v>0.08651056168866815</v>
+        <v>0.1104048582881303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H3">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>280.682565333435</v>
+        <v>316.1112466666667</v>
       </c>
       <c r="N3">
-        <v>280.682565333435</v>
+        <v>948.33374</v>
       </c>
       <c r="O3">
-        <v>0.4178445327711313</v>
+        <v>0.4159831235277584</v>
       </c>
       <c r="P3">
-        <v>0.4178445327711313</v>
+        <v>0.438091559254019</v>
       </c>
       <c r="Q3">
-        <v>138.9144729059708</v>
+        <v>176.6234711104555</v>
       </c>
       <c r="R3">
-        <v>138.9144729059708</v>
+        <v>1589.6112399941</v>
       </c>
       <c r="S3">
-        <v>0.4178445327711313</v>
+        <v>0.4159831235277584</v>
       </c>
       <c r="T3">
-        <v>0.4178445327711313</v>
+        <v>0.438091559254019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H4">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>105.760512078184</v>
+        <v>116.842289</v>
       </c>
       <c r="N4">
-        <v>105.760512078184</v>
+        <v>350.526867</v>
       </c>
       <c r="O4">
-        <v>0.1574428098248548</v>
+        <v>0.1537573270514019</v>
       </c>
       <c r="P4">
-        <v>0.1574428098248548</v>
+        <v>0.1619291344885147</v>
       </c>
       <c r="Q4">
-        <v>52.34263757050112</v>
+        <v>65.28426581871167</v>
       </c>
       <c r="R4">
-        <v>52.34263757050112</v>
+        <v>587.5583923684051</v>
       </c>
       <c r="S4">
-        <v>0.1574428098248548</v>
+        <v>0.1537573270514019</v>
       </c>
       <c r="T4">
-        <v>0.1574428098248548</v>
+        <v>0.1619291344885147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H5">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>128.488311618407</v>
+        <v>132.2480086666667</v>
       </c>
       <c r="N5">
-        <v>128.488311618407</v>
+        <v>396.744026</v>
       </c>
       <c r="O5">
-        <v>0.1912770694217018</v>
+        <v>0.1740303146616488</v>
       </c>
       <c r="P5">
-        <v>0.1912770694217018</v>
+        <v>0.1832795793757766</v>
       </c>
       <c r="Q5">
-        <v>63.59100381545134</v>
+        <v>73.89203194906555</v>
       </c>
       <c r="R5">
-        <v>63.59100381545134</v>
+        <v>665.0282875415901</v>
       </c>
       <c r="S5">
-        <v>0.1912770694217018</v>
+        <v>0.1740303146616488</v>
       </c>
       <c r="T5">
-        <v>0.1912770694217018</v>
+        <v>0.1832795793757766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H6">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.69530425176259</v>
+        <v>115.04788</v>
       </c>
       <c r="N6">
-        <v>98.69530425176259</v>
+        <v>230.09576</v>
       </c>
       <c r="O6">
-        <v>0.146925026293644</v>
+        <v>0.1513959942339921</v>
       </c>
       <c r="P6">
-        <v>0.146925026293644</v>
+        <v>0.1062948685935592</v>
       </c>
       <c r="Q6">
-        <v>48.84594863290162</v>
+        <v>64.28166072473333</v>
       </c>
       <c r="R6">
-        <v>48.84594863290162</v>
+        <v>385.6899643484</v>
       </c>
       <c r="S6">
-        <v>0.146925026293644</v>
+        <v>0.1513959942339921</v>
       </c>
       <c r="T6">
-        <v>0.146925026293644</v>
+        <v>0.1062948685935592</v>
       </c>
     </row>
   </sheetData>
